--- a/data/01_dec19.xlsx
+++ b/data/01_dec19.xlsx
@@ -41,9 +41,6 @@
     <t>Ford Figo</t>
   </si>
   <si>
-    <t xml:space="preserve">Purnanada </t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
@@ -56,15 +53,6 @@
     <t>Tata Indica</t>
   </si>
   <si>
-    <t>Dharmesh</t>
-  </si>
-  <si>
-    <t>20/11/2019, 7:43 AM</t>
-  </si>
-  <si>
-    <t>20/11/2019, 7:43 PM</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -83,120 +71,6 @@
     <t>22/1-6, Rajaram Colony, Shakthi Nagar, Kodambakkam, Chennai, Tamil Nadu 600024, India</t>
   </si>
   <si>
-    <t>21/11/2019, 7:37 AM</t>
-  </si>
-  <si>
-    <t>21/11/2019, 7:37 PM</t>
-  </si>
-  <si>
-    <t>22/11/2019, 7:25 AM</t>
-  </si>
-  <si>
-    <t>22/11/2019, 7:25 PM</t>
-  </si>
-  <si>
-    <t>25/11/2019, 7:41 AM</t>
-  </si>
-  <si>
-    <t>25/11/2019, 7:41 PM</t>
-  </si>
-  <si>
-    <t>26/11/2019, 7:45 AM</t>
-  </si>
-  <si>
-    <t>26/11/2019, 7:45 PM</t>
-  </si>
-  <si>
-    <t>27/11/2019, 7:34 AM</t>
-  </si>
-  <si>
-    <t>27/11/2019, 7:34 PM</t>
-  </si>
-  <si>
-    <t>28/11/2019, 7:39 AM</t>
-  </si>
-  <si>
-    <t>28/11/2019, 7:39 PM</t>
-  </si>
-  <si>
-    <t>29/11/2019, 7:26 AM</t>
-  </si>
-  <si>
-    <t>29/11/2019, 7:26 PM</t>
-  </si>
-  <si>
-    <t>4/12/2019, 7:42 AM</t>
-  </si>
-  <si>
-    <t>4/12/2019, 7:42 PM</t>
-  </si>
-  <si>
-    <t>5/12/2019, 7:45 AM</t>
-  </si>
-  <si>
-    <t>5/12/2019, 7:45 PM</t>
-  </si>
-  <si>
-    <t>6/12/2019, 7:26 AM</t>
-  </si>
-  <si>
-    <t>6/12/2019, 7:26 PM</t>
-  </si>
-  <si>
-    <t>9/12/2019, 7:36 AM</t>
-  </si>
-  <si>
-    <t>9/12/2019, 7:36 PM</t>
-  </si>
-  <si>
-    <t>10/12/2019, 7:30 AM</t>
-  </si>
-  <si>
-    <t>10/12/2019, 7:30 PM</t>
-  </si>
-  <si>
-    <t>11/12/2019, 7:27 AM</t>
-  </si>
-  <si>
-    <t>11/12/2019, 7:27 PM</t>
-  </si>
-  <si>
-    <t>12/12/2019, 7:41 AM</t>
-  </si>
-  <si>
-    <t>12/12/2019, 7:41 PM</t>
-  </si>
-  <si>
-    <t>13/12/2019, 7:38 AM</t>
-  </si>
-  <si>
-    <t>13/12/2019, 7:38 PM</t>
-  </si>
-  <si>
-    <t>16/12/2019, 7:30 AM</t>
-  </si>
-  <si>
-    <t>16/12/2019, 7:30 PM</t>
-  </si>
-  <si>
-    <t>17/12/2019, 7:41 AM</t>
-  </si>
-  <si>
-    <t>17/12/2019, 7:41 PM</t>
-  </si>
-  <si>
-    <t>18/12/2019, 7:33 AM</t>
-  </si>
-  <si>
-    <t>18/12/2019, 7:33 PM</t>
-  </si>
-  <si>
-    <t>19/12/2019, 7:45 AM</t>
-  </si>
-  <si>
-    <t>19/12/2019, 7:45 PM</t>
-  </si>
-  <si>
     <t>Tata Indigo</t>
   </si>
   <si>
@@ -221,120 +95,9 @@
     <t>Hyundai Xcent</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaikrishna </t>
-  </si>
-  <si>
-    <t>Amol</t>
-  </si>
-  <si>
     <t>Inesh</t>
   </si>
   <si>
-    <t>Bhushan</t>
-  </si>
-  <si>
-    <t>Navalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yajnarup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devajyoti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shameek </t>
-  </si>
-  <si>
-    <t>Abhinav</t>
-  </si>
-  <si>
-    <t>Jaidev</t>
-  </si>
-  <si>
-    <t>Balachandra</t>
-  </si>
-  <si>
-    <t>Avanindra</t>
-  </si>
-  <si>
-    <t>Mahaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanobar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barindra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nibodh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salil </t>
-  </si>
-  <si>
-    <t>Ved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narasimha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daha </t>
-  </si>
-  <si>
-    <t>Amar</t>
-  </si>
-  <si>
-    <t>Jinendra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shantipriya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranajit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirayu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amod </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhisumat </t>
-  </si>
-  <si>
-    <t>Parindra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arghya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sambaran </t>
-  </si>
-  <si>
-    <t>Kevalkishore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloke </t>
-  </si>
-  <si>
-    <t>Granthik</t>
-  </si>
-  <si>
-    <t>Rupin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supratim </t>
-  </si>
-  <si>
-    <t>Soman</t>
-  </si>
-  <si>
     <t>2019-11-20-HO</t>
   </si>
   <si>
@@ -540,6 +303,243 @@
   </si>
   <si>
     <t>120.00</t>
+  </si>
+  <si>
+    <t>20/11/2019 at 7:42 AM</t>
+  </si>
+  <si>
+    <t>20/11/2019 at 7:37 PM</t>
+  </si>
+  <si>
+    <t>21/11/2019 at 7:30 AM</t>
+  </si>
+  <si>
+    <t>21/11/2019 at 7:37 PM</t>
+  </si>
+  <si>
+    <t>22/11/2019 at 7:33 AM</t>
+  </si>
+  <si>
+    <t>22/11/2019 at 7:31 PM</t>
+  </si>
+  <si>
+    <t>25/11/2019 at 7:35 AM</t>
+  </si>
+  <si>
+    <t>25/11/2019 at 7:30 PM</t>
+  </si>
+  <si>
+    <t>26/11/2019 at 7:32 AM</t>
+  </si>
+  <si>
+    <t>26/11/2019 at 7:32 PM</t>
+  </si>
+  <si>
+    <t>27/11/2019 at 7:35 AM</t>
+  </si>
+  <si>
+    <t>27/11/2019 at 7:45 PM</t>
+  </si>
+  <si>
+    <t>28/11/2019 at 7:33 AM</t>
+  </si>
+  <si>
+    <t>28/11/2019 at 7:37 PM</t>
+  </si>
+  <si>
+    <t>29/11/2019 at 7:41 AM</t>
+  </si>
+  <si>
+    <t>29/11/2019 at 7:30 PM</t>
+  </si>
+  <si>
+    <t>4/12/2019 at 7:43 AM</t>
+  </si>
+  <si>
+    <t>4/12/2019 at 7:26 PM</t>
+  </si>
+  <si>
+    <t>5/12/2019 at 7:36 AM</t>
+  </si>
+  <si>
+    <t>5/12/2019 at 7:39 PM</t>
+  </si>
+  <si>
+    <t>6/12/2019 at 7:26 AM</t>
+  </si>
+  <si>
+    <t>6/12/2019 at 7:38 PM</t>
+  </si>
+  <si>
+    <t>9/12/2019 at 7:45 AM</t>
+  </si>
+  <si>
+    <t>9/12/2019 at 7:44 PM</t>
+  </si>
+  <si>
+    <t>10/12/2019 at 7:39 AM</t>
+  </si>
+  <si>
+    <t>10/12/2019 at 7:42 PM</t>
+  </si>
+  <si>
+    <t>11/12/2019 at 7:36 AM</t>
+  </si>
+  <si>
+    <t>11/12/2019 at 7:44 PM</t>
+  </si>
+  <si>
+    <t>12/12/2019 at 7:29 AM</t>
+  </si>
+  <si>
+    <t>12/12/2019 at 7:43 PM</t>
+  </si>
+  <si>
+    <t>13/12/2019 at 7:39 AM</t>
+  </si>
+  <si>
+    <t>13/12/2019 at 7:40 PM</t>
+  </si>
+  <si>
+    <t>16/12/2019 at 7:26 AM</t>
+  </si>
+  <si>
+    <t>16/12/2019 at 7:38 PM</t>
+  </si>
+  <si>
+    <t>17/12/2019 at 7:33 AM</t>
+  </si>
+  <si>
+    <t>17/12/2019 at 7:40 PM</t>
+  </si>
+  <si>
+    <t>18/12/2019 at 7:44 AM</t>
+  </si>
+  <si>
+    <t>18/12/2019 at 7:31 PM</t>
+  </si>
+  <si>
+    <t>19/12/2019 at 7:34 AM</t>
+  </si>
+  <si>
+    <t>19/12/2019 at 7:32 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetrival </t>
+  </si>
+  <si>
+    <t>Dharmadev</t>
+  </si>
+  <si>
+    <t>Sharad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taruntapan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramkumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushkar </t>
+  </si>
+  <si>
+    <t>Baladhitya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunal </t>
+  </si>
+  <si>
+    <t>Sankara</t>
+  </si>
+  <si>
+    <t>Janith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashibhushan </t>
+  </si>
+  <si>
+    <t>Suryakant</t>
+  </si>
+  <si>
+    <t>Raivath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surdeep </t>
+  </si>
+  <si>
+    <t>Sabhya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vineet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trivikram </t>
+  </si>
+  <si>
+    <t>Debashish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibhat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shankha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shantanu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharad, Sarat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryabhan </t>
+  </si>
+  <si>
+    <t>Kundir</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinabhas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirumal </t>
+  </si>
+  <si>
+    <t>Dharmachandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirtha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhisoka </t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Harikanth</t>
+  </si>
+  <si>
+    <t>Mahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavani </t>
+  </si>
+  <si>
+    <t>Digamber</t>
   </si>
 </sst>
 </file>
@@ -859,9 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -871,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -880,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -897,1137 +899,1116 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
+      <c r="A38" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="A39" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
+      <c r="A40" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
+      <c r="A41" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
         <v>171</v>
       </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
